--- a/biology/Médecine/Alexandre_Brierre_de_Boismont/Alexandre_Brierre_de_Boismont.xlsx
+++ b/biology/Médecine/Alexandre_Brierre_de_Boismont/Alexandre_Brierre_de_Boismont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre-Jacques-François Brière de Boismont[1],[2], né le 18 octobre 1797 à Rouen, mort le 25 décembre 1881 à Saint-Mandé, est un médecin psychiatre français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre-Jacques-François Brière de Boismont né le 18 octobre 1797 à Rouen, mort le 25 décembre 1881 à Saint-Mandé, est un médecin psychiatre français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Reçu docteur en médecine à la faculté de Paris en août 1825, il commence sa carrière de médecin dans la maison de santé de Mme Marcel Sainte-Colombe, rue Picpus, puis est médecin de l'hôpital temporaire des Bonshommes et devient l'un des aliénistes les plus renommés de la capitale. Envoyé en Pologne lors de l'insurrection de 1831 pour y étudier l'épidémie de choléra-morbus, il publie, à son retour, un mémoire qui reçoit une médaille d'or de l'Institut. En 1838, il prend la tête d'une maison de santé privée 21 rue Neuve-Sainte-Geneviève, près du Panthéon, transférée rue du Faubourg Saint-Antoine, près de la place de la Nation. Il contribue à la fondation d'une autre maison, à Saint-Mandé en 1859, qui sera dirigée par sa fille, Mme Rivet. Il est l'un des membres fondateurs de la Société médico-psychologique en 1852.
 Son premier traité, intitulé Éléments de botanique rédigé en collaboration avec André Pottier en 1825, porte sur la botanique médicale et industrielle. La plupart de ses ouvrages portent sur les maladies mentales ; plusieurs ont connu un grand retentissement. Du délire aigu qu'on observe dans les établissements d'aliénés est ainsi honoré d'une médaille d'or par l'Institut en 1845.
@@ -546,12 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Françaises
- Chevalier de la Légion d'honneur (15 janvier 1832)[3]
-Étrangères
- Chevalier de l'Ordre de Charles III d'Espagne (30 juillet 1863)
- Commandeur de l'ordre d'Isabelle la Catholique (Espagne, 19 décembre 1865)
- Chevalier de l'ordre des Saints-Maurice-et-Lazare  (Italie, 20 mai 1868)</t>
+          <t>Françaises</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (15 janvier 1832)</t>
         </is>
       </c>
     </row>
@@ -576,10 +591,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étrangères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'Ordre de Charles III d'Espagne (30 juillet 1863)
+ Commandeur de l'ordre d'Isabelle la Catholique (Espagne, 19 décembre 1865)
+ Chevalier de l'ordre des Saints-Maurice-et-Lazare  (Italie, 20 mai 1868)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexandre_Brierre_de_Boismont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexandre_Brierre_de_Boismont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Traité élémentaire d'anatomie (avec des notes par Philippe-Frédéric Blandin), Paris, Mme Auger Méquignon, 1827, VI-802 p.
 Observations médico-légales sur la monomanie homicide, Paris, Mme Auger Méquignon, 1827, 46 p.
@@ -606,31 +661,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alexandre_Brierre_de_Boismont</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alexandre_Brierre_de_Boismont</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources partielles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Précis analytique des travaux de l'Académie des sciences, belles-lettres et arts de Rouen, Académie de Rouen, 1883, p. 120.
 (en) Laurent Carrer, Ambroise-Auguste Liébeault, The Hypnological Legacy of a Secular Saint, College Station, Virtualbookworm Publishing, 2002, p. 29  (ISBN 1-58939-259-0).
